--- a/biology/Zoologie/Charinus_sillami/Charinus_sillami.xlsx
+++ b/biology/Zoologie/Charinus_sillami/Charinus_sillami.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charinus sillami est une espèce d'amblypyges de la famille des Charinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Guyane[1]. Elle se rencontre vers Sinnamary.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Guyane. Elle se rencontre vers Sinnamary.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se rencontre dans des termitières de Neocapritermes taracua, d'Embiratermes neotenicus et de Spinitermes sp.[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se rencontre dans des termitières de Neocapritermes taracua, d'Embiratermes neotenicus et de Spinitermes sp..
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle holotype mesure 2,62 mm de long sur 3,71 mm et la carapace du mâle paratype mesure 2,42 mm de long sur 3,20 mm[2].
-La carapace de la femelle décrite par Miranda, Giupponi, Prendini et Scharff en 2021 mesure 1,84 mm de long sur 2,47 mm[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle holotype mesure 2,62 mm de long sur 3,71 mm et la carapace du mâle paratype mesure 2,42 mm de long sur 3,20 mm.
+La carapace de la femelle décrite par Miranda, Giupponi, Prendini et Scharff en 2021 mesure 1,84 mm de long sur 2,47 mm.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de David Sillam-Dussès[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de David Sillam-Dussès.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Réveillion &amp; Maquart, 2015 : « A new species of Charinus Simon, 1892 (Amblypygi, Charinidae) from termite nests in French Guiana. » Zootaxa, no 4032(2), p. 190–196.</t>
         </is>
